--- a/src/data-analysis/model_summaries.xlsx
+++ b/src/data-analysis/model_summaries.xlsx
@@ -437,16 +437,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.993640677481406</v>
+        <v>0.994055893274113</v>
       </c>
       <c r="B2" t="n">
-        <v>0.993286747502813</v>
+        <v>0.993724178947376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.632617614926685</v>
+        <v>0.610998867935711</v>
       </c>
       <c r="D2" t="n">
-        <v>2807.44988438386</v>
+        <v>2996.72282186877</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -455,22 +455,22 @@
         <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>-1098.34702186162</v>
+        <v>-1054.67518635658</v>
       </c>
       <c r="H2" t="n">
-        <v>2322.69404372325</v>
+        <v>2235.35037271317</v>
       </c>
       <c r="I2" t="n">
-        <v>2642.09611381614</v>
+        <v>2554.59152317834</v>
       </c>
       <c r="J2" t="n">
-        <v>445.828422041098</v>
+        <v>414.758094063399</v>
       </c>
       <c r="K2" t="n">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="L2" t="n">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -478,40 +478,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.993574861389854</v>
+        <v>0.729709653374382</v>
       </c>
       <c r="B3" t="n">
-        <v>0.993217268397189</v>
+        <v>0.714612354734032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.635882840360927</v>
+        <v>0.501765246313148</v>
       </c>
       <c r="D3" t="n">
-        <v>2778.50763792801</v>
+        <v>48.333789425356</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.78767129357909e-270</v>
       </c>
       <c r="F3" t="n">
         <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>-1104.40127840626</v>
+        <v>-823.109760181212</v>
       </c>
       <c r="H3" t="n">
-        <v>2334.80255681252</v>
+        <v>1774.21952036242</v>
       </c>
       <c r="I3" t="n">
-        <v>2654.20462690541</v>
+        <v>2098.52799067625</v>
       </c>
       <c r="J3" t="n">
-        <v>450.442543145345</v>
+        <v>279.46288227254</v>
       </c>
       <c r="K3" t="n">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="L3" t="n">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.993447164200824</v>
+        <v>0.688738364717232</v>
       </c>
       <c r="B4" t="n">
-        <v>0.993272045313088</v>
+        <v>0.680373292594331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.636678017184043</v>
+        <v>0.513202058315168</v>
       </c>
       <c r="D4" t="n">
-        <v>5672.98694641749</v>
+        <v>82.3350181084169</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -537,22 +537,22 @@
         <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>-2273.04892033837</v>
+        <v>-1749.96512604798</v>
       </c>
       <c r="H4" t="n">
-        <v>4672.09784067674</v>
+        <v>3627.93025209597</v>
       </c>
       <c r="I4" t="n">
-        <v>5035.9666729214</v>
+        <v>3997.25154708024</v>
       </c>
       <c r="J4" t="n">
-        <v>940.43264235174</v>
+        <v>607.609245584141</v>
       </c>
       <c r="K4" t="n">
-        <v>2320</v>
+        <v>2307</v>
       </c>
       <c r="L4" t="n">
-        <v>2382</v>
+        <v>2370</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -560,40 +560,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.993539538805957</v>
+        <v>0.720995204311783</v>
       </c>
       <c r="B5" t="n">
-        <v>0.993177379136852</v>
+        <v>0.705298019799379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.637402176177116</v>
+        <v>0.509063080022296</v>
       </c>
       <c r="D5" t="n">
-        <v>2743.37432784829</v>
+        <v>45.9314983360257</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.81864800364148e-260</v>
       </c>
       <c r="F5" t="n">
         <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>-1099.45309308226</v>
+        <v>-834.091074972072</v>
       </c>
       <c r="H5" t="n">
-        <v>2324.90618616451</v>
+        <v>1796.18214994414</v>
       </c>
       <c r="I5" t="n">
-        <v>2643.87822045797</v>
+        <v>2120.05263736813</v>
       </c>
       <c r="J5" t="n">
-        <v>449.347376820028</v>
+        <v>285.578031824849</v>
       </c>
       <c r="K5" t="n">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="L5" t="n">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>

--- a/src/data-analysis/model_summaries.xlsx
+++ b/src/data-analysis/model_summaries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">r.squared</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">model_path_b_t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_path_b_t1_air</t>
   </si>
 </sst>
 </file>
@@ -437,40 +434,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.994055893274113</v>
+        <v>0.732503532255243</v>
       </c>
       <c r="B2" t="n">
-        <v>0.993724178947376</v>
+        <v>0.717548815393047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.610998867935711</v>
+        <v>0.499366262474008</v>
       </c>
       <c r="D2" t="n">
-        <v>2996.72282186877</v>
+        <v>48.9814376965541</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.48620330912357e-272</v>
       </c>
       <c r="F2" t="n">
         <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>-1054.67518635658</v>
+        <v>-816.762794424622</v>
       </c>
       <c r="H2" t="n">
-        <v>2235.35037271317</v>
+        <v>1761.52558884924</v>
       </c>
       <c r="I2" t="n">
-        <v>2554.59152317834</v>
+        <v>2085.77947493801</v>
       </c>
       <c r="J2" t="n">
-        <v>414.758094063399</v>
+        <v>276.547630483861</v>
       </c>
       <c r="K2" t="n">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="L2" t="n">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -478,40 +475,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.729709653374382</v>
+        <v>0.729360688542768</v>
       </c>
       <c r="B3" t="n">
-        <v>0.714612354734032</v>
+        <v>0.714230267162833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.501765246313148</v>
+        <v>0.502291249046219</v>
       </c>
       <c r="D3" t="n">
-        <v>48.333789425356</v>
+        <v>48.2049157936857</v>
       </c>
       <c r="E3" t="n">
-        <v>6.78767129357909e-270</v>
+        <v>2.56378532311117e-269</v>
       </c>
       <c r="F3" t="n">
         <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>-823.109760181212</v>
+        <v>-823.607637032608</v>
       </c>
       <c r="H3" t="n">
-        <v>1774.21952036242</v>
+        <v>1775.21527406522</v>
       </c>
       <c r="I3" t="n">
-        <v>2098.52799067625</v>
+        <v>2099.46916015398</v>
       </c>
       <c r="J3" t="n">
-        <v>279.46288227254</v>
+        <v>279.796817245068</v>
       </c>
       <c r="K3" t="n">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L3" t="n">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -519,84 +516,43 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.688738364717232</v>
+        <v>0.721103776173704</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680373292594331</v>
+        <v>0.705398448401469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.513202058315168</v>
+        <v>0.509171051607927</v>
       </c>
       <c r="D4" t="n">
-        <v>82.3350181084169</v>
+        <v>45.9145957748515</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.21346858934044e-260</v>
       </c>
       <c r="F4" t="n">
         <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>-1749.96512604798</v>
+        <v>-833.593388509716</v>
       </c>
       <c r="H4" t="n">
-        <v>3627.93025209597</v>
+        <v>1795.18677701943</v>
       </c>
       <c r="I4" t="n">
-        <v>3997.25154708024</v>
+        <v>2119.00230523008</v>
       </c>
       <c r="J4" t="n">
-        <v>607.609245584141</v>
+        <v>285.43993093487</v>
       </c>
       <c r="K4" t="n">
-        <v>2307</v>
+        <v>1101</v>
       </c>
       <c r="L4" t="n">
-        <v>2370</v>
+        <v>1164</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.720995204311783</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.705298019799379</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.509063080022296</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.9314983360257</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.81864800364148e-260</v>
-      </c>
-      <c r="F5" t="n">
-        <v>62</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-834.091074972072</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1796.18214994414</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2120.05263736813</v>
-      </c>
-      <c r="J5" t="n">
-        <v>285.578031824849</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1102</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1165</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
